--- a/biology/Médecine/Jackie_Pigeaud/Jackie_Pigeaud.xlsx
+++ b/biology/Médecine/Jackie_Pigeaud/Jackie_Pigeaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jackie Pigeaud, né le 18 mai 1937 à Saint-Hilaire-des-Loges (Vendée) et mort le 13 novembre 2016 à Orvault[1] (Loire-Atlantique), est un philologue et latiniste français ainsi qu’un historien de la médecine. Il a été titulaire d'une chaire de philologie et littérature latine à l'université de Nantes et est membre honoraire de l'Institut universitaire de France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jackie Pigeaud, né le 18 mai 1937 à Saint-Hilaire-des-Loges (Vendée) et mort le 13 novembre 2016 à Orvault (Loire-Atlantique), est un philologue et latiniste français ainsi qu’un historien de la médecine. Il a été titulaire d'une chaire de philologie et littérature latine à l'université de Nantes et est membre honoraire de l'Institut universitaire de France.
 L’objet de sa recherche est la relation de l’âme et du corps dans la tradition de la pensée médicale.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(éd.), Théroigne de Méricourt, La Lettre-mélancolie, Lettre adressée en 1801 à Danton (mort en... 1794), transcripte par Jean-Pierre Ghersenzon, Verdier / L'Éther Vague, 2005.
 La Maladie de l’âme : étude sur la relation de l'âme et du corps dans la tradition médico-philosophique antique, thèse de doctorat, publiée en 1981 ; réimpr. avec une nouvelle préface, Paris, Les Belles Lettres, 2006, 590 p.  (ISBN 2-251-32842-4).
